--- a/Edmonton/Edmonton/WebApp/bin/Release/PublishOutput/wwwroot/data.xlsx
+++ b/Edmonton/Edmonton/WebApp/bin/Release/PublishOutput/wwwroot/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>First Name</t>
   </si>
@@ -89,7 +89,7 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>7</t>
+    <t>0</t>
   </si>
   <si>
     <t>Rate</t>
@@ -98,9 +98,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>77</t>
-  </si>
-  <si>
     <t>26 - Bi-Weekly</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
   </si>
   <si>
     <t>Hourly</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>Honey</t>
@@ -391,42 +385,42 @@
         <v>27</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" s="0" t="s">
         <v>24</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>26</v>
@@ -438,21 +432,21 @@
         <v>27</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>19</v>
@@ -467,13 +461,13 @@
         <v>22</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>24</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>26</v>
@@ -485,24 +479,24 @@
         <v>27</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="E5" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>20</v>
@@ -520,7 +514,7 @@
         <v>24</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>26</v>
@@ -532,21 +526,21 @@
         <v>27</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>44</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>19</v>
@@ -561,13 +555,13 @@
         <v>22</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>26</v>
@@ -579,42 +573,42 @@
         <v>27</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="E7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="J7" s="0" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>26</v>
@@ -626,42 +620,42 @@
         <v>27</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="J8" s="0" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>26</v>
@@ -673,42 +667,42 @@
         <v>27</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="E9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="J9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>26</v>
@@ -720,21 +714,21 @@
         <v>27</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>19</v>
@@ -749,13 +743,13 @@
         <v>22</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>26</v>
@@ -767,42 +761,42 @@
         <v>27</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="E11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="J11" s="0" t="s">
         <v>24</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>26</v>
@@ -814,21 +808,21 @@
         <v>27</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>19</v>
@@ -849,7 +843,7 @@
         <v>24</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>26</v>
@@ -861,42 +855,42 @@
         <v>27</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="E13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="J13" s="0" t="s">
         <v>24</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>26</v>
@@ -908,21 +902,21 @@
         <v>27</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>67</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>19</v>
@@ -937,13 +931,13 @@
         <v>22</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>24</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>26</v>
@@ -955,42 +949,42 @@
         <v>27</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="E15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="J15" s="0" t="s">
         <v>24</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>26</v>
@@ -1002,42 +996,42 @@
         <v>27</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="J16" s="0" t="s">
         <v>24</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>26</v>
@@ -1049,24 +1043,24 @@
         <v>27</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="E17" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>20</v>
@@ -1084,7 +1078,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>26</v>
@@ -1096,24 +1090,24 @@
         <v>27</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="E18" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>20</v>
@@ -1131,7 +1125,7 @@
         <v>24</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>26</v>
@@ -1143,10 +1137,10 @@
         <v>27</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
